--- a/ajout-RC/ig/StructureDefinition-start.xlsx
+++ b/ajout-RC/ig/StructureDefinition-start.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:16:53+00:00</t>
+    <t>2025-12-16T07:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-start.xlsx
+++ b/ajout-RC/ig/StructureDefinition-start.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-16T07:50:40+00:00</t>
+    <t>2026-01-02T15:03:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-start.xlsx
+++ b/ajout-RC/ig/StructureDefinition-start.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T15:03:02+00:00</t>
+    <t>2026-01-09T09:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-start.xlsx
+++ b/ajout-RC/ig/StructureDefinition-start.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/start</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/start</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T09:23:40+00:00</t>
+    <t>2026-01-15T15:19:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-start.xlsx
+++ b/ajout-RC/ig/StructureDefinition-start.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T15:19:42+00:00</t>
+    <t>2026-01-16T10:55:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-start.xlsx
+++ b/ajout-RC/ig/StructureDefinition-start.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T10:55:18+00:00</t>
+    <t>2026-01-21T09:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-start.xlsx
+++ b/ajout-RC/ig/StructureDefinition-start.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T09:17:46+00:00</t>
+    <t>2026-01-23T10:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-start.xlsx
+++ b/ajout-RC/ig/StructureDefinition-start.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T10:31:33+00:00</t>
+    <t>2026-01-30T14:49:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
